--- a/Brothers_AMS/TemplateFiles/StandardTemplate/StandardizeDTR_template.xlsx
+++ b/Brothers_AMS/TemplateFiles/StandardTemplate/StandardizeDTR_template.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="40950" windowHeight="7590"/>
   </bookViews>
   <sheets>
-    <sheet name="DTR Correction" sheetId="1" r:id="rId1"/>
+    <sheet name="Standardized-DTR Form" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DTR Correction'!$10:$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Standardized-DTR Form'!$10:$10</definedName>
     <definedName name="a" hidden="1">{"'000228 出張報告書'!$A$1:$AE$60"}</definedName>
     <definedName name="aaa" hidden="1">{"'000228 出張報告書'!$A$1:$AE$60"}</definedName>
     <definedName name="AAAAAA" hidden="1">{"'000228 出張報告書'!$A$1:$AE$60"}</definedName>
@@ -584,66 +584,6 @@
     <xf numFmtId="49" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,12 +592,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,6 +618,72 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:XEY54"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1293,7 +1293,7 @@
     <col min="2" max="2" width="21.140625" style="21" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="21" customWidth="1"/>
     <col min="4" max="4" width="17" style="21" customWidth="1"/>
-    <col min="5" max="5" width="18" style="95" customWidth="1"/>
+    <col min="5" max="5" width="18" style="73" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="21" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="21" customWidth="1"/>
     <col min="8" max="9" width="11.140625" style="21" customWidth="1"/>
@@ -1305,52 +1305,52 @@
     <row r="1" spans="1:10 16379:16379" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10 16379:16379" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10 16379:16379" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:10 16379:16379" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:10 16379:16379" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1359,7 +1359,7 @@
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="81"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1375,7 +1375,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="82"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -1387,7 +1387,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="19"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="82"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -1399,7 +1399,7 @@
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="82"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -1413,7 +1413,7 @@
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="83"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1421,39 +1421,39 @@
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10 16379:16379" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="71" t="s">
+      <c r="G10" s="85"/>
+      <c r="H10" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="73" t="s">
+      <c r="I10" s="85"/>
+      <c r="J10" s="86" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10 16379:16379" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="85"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="29" t="s">
         <v>12</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="I11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="74"/>
+      <c r="J11" s="87"/>
     </row>
     <row r="12" spans="1:10 16379:16379" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
@@ -1475,7 +1475,7 @@
       <c r="B12" s="58"/>
       <c r="C12" s="56"/>
       <c r="D12" s="31"/>
-      <c r="E12" s="86"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="60"/>
@@ -1489,7 +1489,7 @@
       <c r="B13" s="58"/>
       <c r="C13" s="56"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="86"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="60"/>
@@ -1504,7 +1504,7 @@
       <c r="B14" s="58"/>
       <c r="C14" s="56"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="86"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="60"/>
@@ -1518,7 +1518,7 @@
       <c r="B15" s="58"/>
       <c r="C15" s="56"/>
       <c r="D15" s="31"/>
-      <c r="E15" s="87"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="60"/>
@@ -1532,7 +1532,7 @@
       <c r="B16" s="58"/>
       <c r="C16" s="56"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="87"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="60"/>
@@ -1546,7 +1546,7 @@
       <c r="B17" s="58"/>
       <c r="C17" s="56"/>
       <c r="D17" s="31"/>
-      <c r="E17" s="87"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="60"/>
@@ -1560,7 +1560,7 @@
       <c r="B18" s="58"/>
       <c r="C18" s="56"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="87"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="60"/>
@@ -1574,7 +1574,7 @@
       <c r="B19" s="58"/>
       <c r="C19" s="56"/>
       <c r="D19" s="31"/>
-      <c r="E19" s="87"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="60"/>
@@ -1588,7 +1588,7 @@
       <c r="B20" s="59"/>
       <c r="C20" s="57"/>
       <c r="D20" s="31"/>
-      <c r="E20" s="88"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="60"/>
@@ -1602,7 +1602,7 @@
       <c r="B21" s="59"/>
       <c r="C21" s="57"/>
       <c r="D21" s="31"/>
-      <c r="E21" s="88"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="60"/>
@@ -1616,7 +1616,7 @@
       <c r="B22" s="59"/>
       <c r="C22" s="57"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="88"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="60"/>
@@ -1630,7 +1630,7 @@
       <c r="B23" s="59"/>
       <c r="C23" s="57"/>
       <c r="D23" s="31"/>
-      <c r="E23" s="88"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="60"/>
@@ -1644,7 +1644,7 @@
       <c r="B24" s="59"/>
       <c r="C24" s="57"/>
       <c r="D24" s="31"/>
-      <c r="E24" s="88"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="60"/>
@@ -1658,7 +1658,7 @@
       <c r="B25" s="59"/>
       <c r="C25" s="57"/>
       <c r="D25" s="31"/>
-      <c r="E25" s="88"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="60"/>
@@ -1672,7 +1672,7 @@
       <c r="B26" s="59"/>
       <c r="C26" s="57"/>
       <c r="D26" s="31"/>
-      <c r="E26" s="88"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="60"/>
@@ -1686,7 +1686,7 @@
       <c r="B27" s="59"/>
       <c r="C27" s="57"/>
       <c r="D27" s="31"/>
-      <c r="E27" s="88"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="60"/>
@@ -1700,7 +1700,7 @@
       <c r="B28" s="59"/>
       <c r="C28" s="57"/>
       <c r="D28" s="31"/>
-      <c r="E28" s="88"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="60"/>
@@ -1714,7 +1714,7 @@
       <c r="B29" s="59"/>
       <c r="C29" s="57"/>
       <c r="D29" s="31"/>
-      <c r="E29" s="88"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="60"/>
@@ -1728,7 +1728,7 @@
       <c r="B30" s="59"/>
       <c r="C30" s="57"/>
       <c r="D30" s="31"/>
-      <c r="E30" s="88"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="60"/>
@@ -1742,7 +1742,7 @@
       <c r="B31" s="59"/>
       <c r="C31" s="57"/>
       <c r="D31" s="31"/>
-      <c r="E31" s="88"/>
+      <c r="E31" s="66"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="60"/>
@@ -1756,7 +1756,7 @@
       <c r="B32" s="59"/>
       <c r="C32" s="57"/>
       <c r="D32" s="31"/>
-      <c r="E32" s="88"/>
+      <c r="E32" s="66"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="60"/>
@@ -1770,7 +1770,7 @@
       <c r="B33" s="59"/>
       <c r="C33" s="57"/>
       <c r="D33" s="31"/>
-      <c r="E33" s="88"/>
+      <c r="E33" s="66"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="60"/>
@@ -1784,7 +1784,7 @@
       <c r="B34" s="59"/>
       <c r="C34" s="57"/>
       <c r="D34" s="31"/>
-      <c r="E34" s="88"/>
+      <c r="E34" s="66"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="60"/>
@@ -1798,7 +1798,7 @@
       <c r="B35" s="59"/>
       <c r="C35" s="57"/>
       <c r="D35" s="31"/>
-      <c r="E35" s="88"/>
+      <c r="E35" s="66"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="60"/>
@@ -1812,7 +1812,7 @@
       <c r="B36" s="59"/>
       <c r="C36" s="57"/>
       <c r="D36" s="31"/>
-      <c r="E36" s="88"/>
+      <c r="E36" s="66"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="60"/>
@@ -1826,7 +1826,7 @@
       <c r="B37" s="59"/>
       <c r="C37" s="57"/>
       <c r="D37" s="31"/>
-      <c r="E37" s="88"/>
+      <c r="E37" s="66"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="60"/>
@@ -1840,7 +1840,7 @@
       <c r="B38" s="59"/>
       <c r="C38" s="57"/>
       <c r="D38" s="31"/>
-      <c r="E38" s="88"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="60"/>
@@ -1854,7 +1854,7 @@
       <c r="B39" s="59"/>
       <c r="C39" s="57"/>
       <c r="D39" s="31"/>
-      <c r="E39" s="88"/>
+      <c r="E39" s="66"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="60"/>
@@ -1868,7 +1868,7 @@
       <c r="B40" s="59"/>
       <c r="C40" s="57"/>
       <c r="D40" s="31"/>
-      <c r="E40" s="88"/>
+      <c r="E40" s="66"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
       <c r="H40" s="60"/>
@@ -1882,7 +1882,7 @@
       <c r="B41" s="59"/>
       <c r="C41" s="57"/>
       <c r="D41" s="31"/>
-      <c r="E41" s="88"/>
+      <c r="E41" s="66"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
       <c r="H41" s="60"/>
@@ -1894,7 +1894,7 @@
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="82"/>
+      <c r="E42" s="62"/>
       <c r="F42" s="18"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="18"/>
-      <c r="E43" s="89" t="s">
+      <c r="E43" s="67" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="19"/>
@@ -1927,7 +1927,7 @@
       <c r="B44" s="40"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="90" t="s">
+      <c r="E44" s="68" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="45"/>
@@ -1941,7 +1941,7 @@
       <c r="B45" s="42"/>
       <c r="C45" s="40"/>
       <c r="D45" s="18"/>
-      <c r="E45" s="91"/>
+      <c r="E45" s="69"/>
       <c r="F45" s="46"/>
       <c r="G45" s="46"/>
       <c r="H45" s="46"/>
@@ -1949,13 +1949,13 @@
       <c r="J45" s="47"/>
     </row>
     <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="64"/>
+      <c r="B46" s="77"/>
       <c r="C46" s="42"/>
       <c r="D46" s="18"/>
-      <c r="E46" s="92" t="s">
+      <c r="E46" s="70" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="46"/>
@@ -1971,7 +1971,7 @@
       <c r="B47" s="50"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="93" t="s">
+      <c r="E47" s="71" t="s">
         <v>23</v>
       </c>
       <c r="F47" s="46"/>
@@ -1985,7 +1985,7 @@
       <c r="B48" s="46"/>
       <c r="C48" s="46"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="91"/>
+      <c r="E48" s="69"/>
       <c r="F48" s="46"/>
       <c r="G48" s="46"/>
       <c r="H48" s="46"/>
@@ -1993,13 +1993,13 @@
       <c r="J48" s="53"/>
     </row>
     <row r="49" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="62"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="26"/>
       <c r="D49" s="25"/>
-      <c r="E49" s="94" t="s">
+      <c r="E49" s="72" t="s">
         <v>25</v>
       </c>
       <c r="F49" s="54"/>
